--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayup\OneDrive\ドキュメント\Desktop\GM31\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nayup\Documents\Stelemate\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>兵種</t>
     <rPh sb="0" eb="1">
@@ -62,6 +62,14 @@
   </si>
   <si>
     <t>Swordsman</t>
+  </si>
+  <si>
+    <t>Dexterity</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Luck</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -93,7 +101,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -148,8 +156,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -185,13 +205,61 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -210,16 +278,28 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="7" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="2" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="5" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -502,21 +582,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="12.8984375" customWidth="1"/>
     <col min="6" max="6" width="13.796875" customWidth="1"/>
-    <col min="7" max="7" width="11.3984375" customWidth="1"/>
-    <col min="8" max="8" width="12" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="7.69921875" customWidth="1"/>
+    <col min="9" max="9" width="10.796875" customWidth="1"/>
+    <col min="10" max="10" width="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -532,61 +614,77 @@
       <c r="E1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="12" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="13" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="8" t="s">
+      <c r="J1" s="6" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A2" s="9" t="s">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="B2" s="9">
+      <c r="B2" s="7">
         <v>5</v>
       </c>
-      <c r="C2" s="9">
+      <c r="C2" s="7">
         <v>5</v>
       </c>
-      <c r="D2" s="9">
+      <c r="D2" s="7">
         <v>5</v>
       </c>
-      <c r="E2" s="9">
+      <c r="E2" s="7">
         <v>0</v>
       </c>
       <c r="F2" s="9">
         <v>0</v>
       </c>
-      <c r="G2" s="9">
+      <c r="G2" s="7">
+        <v>5</v>
+      </c>
+      <c r="H2" s="7">
+        <v>4</v>
+      </c>
+      <c r="I2" s="11">
         <v>2</v>
       </c>
-      <c r="H2" s="9">
+      <c r="J2" s="7">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A3" s="9"/>
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="9"/>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A3" s="7"/>
+      <c r="B3" s="7"/>
+      <c r="C3" s="7"/>
+      <c r="D3" s="7"/>
+      <c r="E3" s="7"/>
       <c r="F3" s="9"/>
-      <c r="G3" s="9"/>
-      <c r="H3" s="9"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="7"/>
+      <c r="I3" s="11"/>
+      <c r="J3" s="7"/>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.45">
-      <c r="A4" s="9"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A4" s="7"/>
+      <c r="B4" s="7"/>
+      <c r="C4" s="7"/>
+      <c r="D4" s="7"/>
+      <c r="E4" s="7"/>
       <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
-      <c r="H4" s="9"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="7"/>
+      <c r="I4" s="11"/>
+      <c r="J4" s="7"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -61,14 +61,18 @@
     <t>Weapontype</t>
   </si>
   <si>
-    <t>Swordsman</t>
-  </si>
-  <si>
     <t>Dexterity</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Luck</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>剣士</t>
+    <rPh sb="0" eb="2">
+      <t>ケンシ</t>
+    </rPh>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -585,7 +589,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -618,10 +622,10 @@
         <v>5</v>
       </c>
       <c r="G1" s="12" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" s="13" t="s">
         <v>9</v>
-      </c>
-      <c r="H1" s="13" t="s">
-        <v>10</v>
       </c>
       <c r="I1" s="10" t="s">
         <v>6</v>
@@ -632,7 +636,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A2" s="7" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="B2" s="7">
         <v>5</v>

--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -589,7 +589,7 @@
   <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -639,7 +639,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>

--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>兵種</t>
     <rPh sb="0" eb="1">
@@ -74,6 +74,22 @@
       <t>ケンシ</t>
     </rPh>
     <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>槍兵</t>
+  </si>
+  <si>
+    <t>弓士</t>
+    <rPh sb="0" eb="1">
+      <t>ユミ</t>
+    </rPh>
+    <rPh sb="1" eb="2">
+      <t>シ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>魔術師</t>
   </si>
 </sst>
 </file>
@@ -173,7 +189,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -257,13 +273,48 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -304,6 +355,15 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -586,10 +646,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J4"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="K3" sqref="K3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -667,28 +727,100 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
-      <c r="D3" s="7"/>
-      <c r="E3" s="7"/>
-      <c r="F3" s="9"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="7"/>
-      <c r="I3" s="11"/>
-      <c r="J3" s="7"/>
+      <c r="A3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="7">
+        <v>11</v>
+      </c>
+      <c r="C3" s="7">
+        <v>4</v>
+      </c>
+      <c r="D3" s="7">
+        <v>4</v>
+      </c>
+      <c r="E3" s="7">
+        <v>0</v>
+      </c>
+      <c r="F3" s="9">
+        <v>0</v>
+      </c>
+      <c r="G3" s="7">
+        <v>3</v>
+      </c>
+      <c r="H3" s="7">
+        <v>5</v>
+      </c>
+      <c r="I3" s="11">
+        <v>2</v>
+      </c>
+      <c r="J3" s="7">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="7"/>
-      <c r="E4" s="7"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="7"/>
-      <c r="I4" s="11"/>
-      <c r="J4" s="7"/>
+      <c r="A4" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="14">
+        <v>9</v>
+      </c>
+      <c r="C4" s="14">
+        <v>6</v>
+      </c>
+      <c r="D4" s="14">
+        <v>5</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="15">
+        <v>0</v>
+      </c>
+      <c r="G4" s="14">
+        <v>4</v>
+      </c>
+      <c r="H4" s="14">
+        <v>5</v>
+      </c>
+      <c r="I4" s="16">
+        <v>2</v>
+      </c>
+      <c r="J4" s="14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A5" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="7">
+        <v>8</v>
+      </c>
+      <c r="C5" s="7">
+        <v>7</v>
+      </c>
+      <c r="D5" s="7">
+        <v>5</v>
+      </c>
+      <c r="E5" s="7">
+        <v>0</v>
+      </c>
+      <c r="F5" s="7">
+        <v>0</v>
+      </c>
+      <c r="G5" s="7">
+        <v>3</v>
+      </c>
+      <c r="H5" s="7">
+        <v>5</v>
+      </c>
+      <c r="I5" s="7">
+        <v>2</v>
+      </c>
+      <c r="J5" s="7">
+        <v>3</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>

--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -649,7 +649,7 @@
   <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -699,7 +699,7 @@
         <v>10</v>
       </c>
       <c r="B2" s="7">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C2" s="7">
         <v>5</v>

--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>兵種</t>
     <rPh sb="0" eb="1">
@@ -90,6 +90,10 @@
   </si>
   <si>
     <t>魔術師</t>
+  </si>
+  <si>
+    <t>修道士</t>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
@@ -646,10 +650,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J5"/>
+  <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -708,10 +712,10 @@
         <v>5</v>
       </c>
       <c r="E2" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="F2" s="9">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G2" s="7">
         <v>5</v>
@@ -740,10 +744,10 @@
         <v>4</v>
       </c>
       <c r="E3" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="F3" s="9">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G3" s="7">
         <v>3</v>
@@ -752,7 +756,7 @@
         <v>5</v>
       </c>
       <c r="I3" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J3" s="7">
         <v>1</v>
@@ -772,10 +776,10 @@
         <v>5</v>
       </c>
       <c r="E4" s="14">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F4" s="15">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" s="14">
         <v>4</v>
@@ -804,10 +808,10 @@
         <v>5</v>
       </c>
       <c r="E5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F5" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G5" s="7">
         <v>3</v>
@@ -820,6 +824,38 @@
       </c>
       <c r="J5" s="7">
         <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A6" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" s="7">
+        <v>7</v>
+      </c>
+      <c r="C6" s="7">
+        <v>-5</v>
+      </c>
+      <c r="D6" s="7">
+        <v>5</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="7">
+        <v>5</v>
+      </c>
+      <c r="G6" s="7">
+        <v>3</v>
+      </c>
+      <c r="H6" s="7">
+        <v>6</v>
+      </c>
+      <c r="I6" s="7">
+        <v>2</v>
+      </c>
+      <c r="J6" s="7">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Data/CharacterData.xlsx
+++ b/Data/CharacterData.xlsx
@@ -79,20 +79,20 @@
     <t>槍兵</t>
   </si>
   <si>
-    <t>弓士</t>
+    <t>魔術師</t>
+  </si>
+  <si>
+    <t>修道士</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>弓使い</t>
     <rPh sb="0" eb="1">
       <t>ユミ</t>
     </rPh>
     <rPh sb="1" eb="2">
-      <t>シ</t>
+      <t>ツカ</t>
     </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>魔術師</t>
-  </si>
-  <si>
-    <t>修道士</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -653,7 +653,7 @@
   <dimension ref="A1:J6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -764,7 +764,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B4" s="14">
         <v>9</v>
@@ -796,7 +796,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A5" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="7">
         <v>8</v>
@@ -828,7 +828,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.45">
       <c r="A6" s="7" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B6" s="7">
         <v>7</v>
